--- a/42-Skill Learn System 技能学习系统.xlsx
+++ b/42-Skill Learn System 技能学习系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="4"/>
+    <workbookView windowWidth="24045" windowHeight="12255" firstSheet="4" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
@@ -1692,13 +1692,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">在学习技能时执行的操作。
 这将适用于任何学习技能的时候。包括等级提升、通过技能学习系统菜单
 </t>
@@ -3170,7 +3163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3296,9 +3289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3650,7 +3640,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -3782,17 +3772,17 @@
       <c r="C31" s="41"/>
     </row>
     <row r="32" ht="27" spans="2:2">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" ht="27" spans="2:2">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" ht="27" spans="2:2">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="35" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3847,8 +3837,8 @@
   <sheetPr/>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4369,7 +4359,7 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/42-Skill Learn System 技能学习系统.xlsx
+++ b/42-Skill Learn System 技能学习系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" firstSheet="4" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="4" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="259">
   <si>
     <t>视频原文</t>
   </si>
@@ -1692,6 +1692,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在学习技能时执行的操作。
 这将适用于任何学习技能的时候。包括等级提升、通过技能学习系统菜单
 </t>
@@ -1926,14 +1933,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Skill Points Plugin Commands  </t>
     </r>
     <r>
@@ -1979,13 +1978,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">目标角色，获得 SP点数。
 </t>
     </r>
@@ -2092,6 +2084,21 @@
     <t>["JP","Item","Weapon","Armor","Gold"]</t>
   </si>
   <si>
+    <t>Separate Skill Type?:</t>
+  </si>
+  <si>
+    <t>按技能类型区分可学习技能？</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Hide Learned Skills</t>
+  </si>
+  <si>
+    <t>学习后隐藏技能？</t>
+  </si>
+  <si>
     <t>Vocabulary 词汇</t>
   </si>
   <si>
@@ -2203,7 +2210,7 @@
     <t>\I[164]Learn</t>
   </si>
   <si>
-    <t>\I[164]学习</t>
+    <t>\I[90]学习</t>
   </si>
   <si>
     <t>Cancel Text</t>
@@ -2212,7 +2219,7 @@
     <t>\I[168]Cancel</t>
   </si>
   <si>
-    <t>\I[168]取消</t>
+    <t>\I[91]取消</t>
   </si>
   <si>
     <t>Ability Points Settings</t>
@@ -2228,9 +2235,6 @@
   </si>
   <si>
     <t>Show in Menus?</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Full Text</t>
@@ -2609,6 +2613,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
@@ -2617,22 +2628,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3837,7 +3841,7 @@
   <sheetPr/>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -4359,8 +4363,8 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4466,10 +4470,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4494,214 +4498,213 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="27"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:2">
-      <c r="A7" s="25" t="s">
+      <c r="C6" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="D6" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="C7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    </row>
+    <row r="9" ht="14.25" spans="1:2">
+      <c r="A9" s="25" t="s">
         <v>169</v>
       </c>
+      <c r="B9" s="25"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
       <c r="D11" s="26"/>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12" s="25" t="s">
+        <v>173</v>
+      </c>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
       <c r="D13" s="26"/>
     </row>
-    <row r="15" ht="14.25" spans="1:2">
-      <c r="A15" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="25"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="14" spans="4:4">
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="26"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:2">
+      <c r="A17" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
         <v>177</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="26" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>179</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" t="s">
         <v>184</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
         <v>186</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
         <v>189</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="26" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>191</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="26" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:2">
-      <c r="A29" s="25" t="s">
+      <c r="C27" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="25"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="D27" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="28" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C28" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="D28" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="29" t="s">
+    </row>
+    <row r="31" ht="14.25" spans="1:2">
+      <c r="A31" s="25" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="25"/>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>204</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="C32" s="10" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4709,32 +4712,33 @@
       <c r="A33" t="s">
         <v>207</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="C34" t="s">
         <v>209</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
         <v>211</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C35" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D35" s="30" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4743,83 +4747,105 @@
         <v>214</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:2">
-      <c r="A39" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="25"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="C38" t="s">
         <v>216</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="D38" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>202</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:2">
+      <c r="A41" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="25"/>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>207</v>
       </c>
-      <c r="C43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>221</v>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
         <v>211</v>
       </c>
-      <c r="C46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>213</v>
+      <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4850,42 +4876,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -4895,28 +4921,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -4927,10 +4953,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C6" s="15">
         <v>0</v>
@@ -4945,7 +4971,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
@@ -4955,25 +4981,25 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B9" s="15">
         <v>78</v>
@@ -4991,7 +5017,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="16"/>
@@ -5001,61 +5027,61 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="16"/>
@@ -5065,10 +5091,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
@@ -5077,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -5101,10 +5127,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C17" s="11">
         <v>0</v>
@@ -5113,31 +5139,31 @@
         <v>0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="16"/>
@@ -5147,73 +5173,73 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F23" s="23"/>
     </row>
@@ -5244,42 +5270,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -5289,28 +5315,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -5321,10 +5347,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C6" s="15">
         <v>0</v>
@@ -5339,7 +5365,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
@@ -5349,25 +5375,25 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B9" s="15">
         <v>78</v>
@@ -5385,7 +5411,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="16"/>
@@ -5395,61 +5421,61 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="16"/>
@@ -5459,7 +5485,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B15" s="20">
         <v>0</v>
@@ -5477,7 +5503,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -5495,7 +5521,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B17" s="20">
         <v>0</v>
@@ -5513,25 +5539,25 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="16"/>
@@ -5541,73 +5567,73 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F23" s="23"/>
     </row>
